--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Investment</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Mm3</t>
   </si>
   <si>
-    <t>kton</t>
+    <t>ktonCO2_eq</t>
   </si>
   <si>
     <t>kha</t>
@@ -106,37 +106,34 @@
     <t>Increase in maize productivity</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.12000000000000001</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.19999999999999998</t>
-  </si>
-  <si>
-    <t>0.21999999999999997</t>
-  </si>
-  <si>
-    <t>0.23999999999999996</t>
-  </si>
-  <si>
-    <t>0.25999999999999995</t>
-  </si>
-  <si>
-    <t>0.27999999999999997</t>
-  </si>
-  <si>
-    <t>0.3</t>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.060000000000000005</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.09999999999999999</t>
+  </si>
+  <si>
+    <t>0.10999999999999999</t>
+  </si>
+  <si>
+    <t>0.11999999999999998</t>
+  </si>
+  <si>
+    <t>0.12999999999999998</t>
+  </si>
+  <si>
+    <t>0.13999999999999999</t>
   </si>
 </sst>
 </file>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,70 +646,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E4">
-        <v>252.7997955774481</v>
+        <v>95.15069667442003</v>
       </c>
       <c r="F4">
-        <v>2.00846322822232</v>
+        <v>0.4174296789801674</v>
       </c>
       <c r="G4">
-        <v>0.4978931084962379</v>
+        <v>2.395613082527156</v>
       </c>
       <c r="H4">
-        <v>2.646864887099809</v>
+        <v>-583.4033060702495</v>
       </c>
       <c r="I4">
-        <v>4.665847087620932</v>
+        <v>198.6276074356865</v>
       </c>
       <c r="J4">
-        <v>125.5762012379837</v>
+        <v>29.57602873311134</v>
       </c>
       <c r="K4">
-        <v>9.925804041486117</v>
+        <v>-6.111294427653775</v>
       </c>
       <c r="L4">
-        <v>135.6565080231667</v>
+        <v>56.19479011988733</v>
       </c>
       <c r="M4">
-        <v>99.29395512311021</v>
+        <v>46.24307485178724</v>
       </c>
       <c r="N4">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O4">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P4">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q4">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R4">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S4">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T4">
-        <v>-26.4663388724382</v>
+        <v>5834.25784105761</v>
       </c>
       <c r="U4">
-        <v>-30.88179760207277</v>
+        <v>-1978.531779534824</v>
       </c>
       <c r="V4">
-        <v>-1255.758250909863</v>
+        <v>-295.7570765885757</v>
       </c>
       <c r="W4">
-        <v>3.076552124592126</v>
+        <v>246.439766809548</v>
       </c>
       <c r="X4">
-        <v>-992.8730523317936</v>
+        <v>-462.3103197419769</v>
       </c>
       <c r="Y4">
-        <v>-1356.254482268007</v>
+        <v>-561.3854116998264</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -722,70 +719,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E5">
-        <v>307.7159829272714</v>
+        <v>122.8218623727153</v>
       </c>
       <c r="F5">
-        <v>2.444765570454623</v>
+        <v>0.5388241218813056</v>
       </c>
       <c r="G5">
-        <v>0.4090371739872148</v>
+        <v>1.85589315583812</v>
       </c>
       <c r="H5">
-        <v>3.186694756270981</v>
+        <v>-567.8550614131964</v>
       </c>
       <c r="I5">
-        <v>8.143106510418875</v>
+        <v>242.3011424775759</v>
       </c>
       <c r="J5">
-        <v>150.6914104616844</v>
+        <v>35.49644697510575</v>
       </c>
       <c r="K5">
-        <v>13.45821322938718</v>
+        <v>-4.271499442314962</v>
       </c>
       <c r="L5">
-        <v>164.4077363347169</v>
+        <v>70.65072745818179</v>
       </c>
       <c r="M5">
-        <v>119.6241310050318</v>
+        <v>56.43310060928343</v>
       </c>
       <c r="N5">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O5">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P5">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q5">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R5">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S5">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T5">
-        <v>-31.86463756414992</v>
+        <v>5678.775394487078</v>
       </c>
       <c r="U5">
-        <v>-65.65439183005219</v>
+        <v>-2415.267129953718</v>
       </c>
       <c r="V5">
-        <v>-1506.91034314687</v>
+        <v>-354.9612590085198</v>
       </c>
       <c r="W5">
-        <v>-32.24753975441854</v>
+        <v>228.0418169561599</v>
       </c>
       <c r="X5">
-        <v>-1196.17481115101</v>
+        <v>-564.2105773169387</v>
       </c>
       <c r="Y5">
-        <v>-1643.766765383509</v>
+        <v>-705.944785082771</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -795,70 +792,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E6">
-        <v>362.6274802930129</v>
+        <v>150.4918448685494</v>
       </c>
       <c r="F6">
-        <v>2.881030651341252</v>
+        <v>0.6602133740288205</v>
       </c>
       <c r="G6">
-        <v>0.347098007976574</v>
+        <v>1.51466183409418</v>
       </c>
       <c r="H6">
-        <v>3.726478522578645</v>
+        <v>-552.3074815897562</v>
       </c>
       <c r="I6">
-        <v>11.62006896628736</v>
+        <v>285.9728100652865</v>
       </c>
       <c r="J6">
-        <v>175.8044747817348</v>
+        <v>41.41661206356002</v>
       </c>
       <c r="K6">
-        <v>16.99032074044226</v>
+        <v>-2.431783125473885</v>
       </c>
       <c r="L6">
-        <v>193.156509217195</v>
+        <v>85.10604666924337</v>
       </c>
       <c r="M6">
-        <v>139.9525706374989</v>
+        <v>66.62269064739667</v>
       </c>
       <c r="N6">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O6">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P6">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q6">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R6">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S6">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T6">
-        <v>-37.26247522722656</v>
+        <v>5523.299596252677</v>
       </c>
       <c r="U6">
-        <v>-100.4240163887371</v>
+        <v>-2851.983805830823</v>
       </c>
       <c r="V6">
-        <v>-1758.040986347374</v>
+        <v>-414.1629098930625</v>
       </c>
       <c r="W6">
-        <v>-67.56861486496928</v>
+        <v>209.6446537877491</v>
       </c>
       <c r="X6">
-        <v>-1399.45920747568</v>
+        <v>-666.1064776980711</v>
       </c>
       <c r="Y6">
-        <v>-1931.25449420829</v>
+        <v>-850.4979771933868</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -868,70 +865,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E7">
-        <v>417.5342882755212</v>
+        <v>178.1606442378543</v>
       </c>
       <c r="F7">
-        <v>3.317258475655875</v>
+        <v>0.7815974357558284</v>
       </c>
       <c r="G7">
-        <v>0.3014537478278004</v>
+        <v>1.279431014295703</v>
       </c>
       <c r="H7">
-        <v>4.266216191929061</v>
+        <v>-536.7605665573064</v>
       </c>
       <c r="I7">
-        <v>15.09673449327238</v>
+        <v>329.6426103185659</v>
       </c>
       <c r="J7">
-        <v>200.9153944728914</v>
+        <v>47.33652401471591</v>
       </c>
       <c r="K7">
-        <v>20.52212661331578</v>
+        <v>-0.5921454721392365</v>
       </c>
       <c r="L7">
-        <v>221.9028269851115</v>
+        <v>99.56074779275514</v>
       </c>
       <c r="M7">
-        <v>160.2792742429083</v>
+        <v>76.81184499405208</v>
       </c>
       <c r="N7">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O7">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P7">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q7">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R7">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S7">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T7">
-        <v>-42.65985192073072</v>
+        <v>5367.830445928179</v>
       </c>
       <c r="U7">
-        <v>-135.1906716585872</v>
+        <v>-3288.681808363617</v>
       </c>
       <c r="V7">
-        <v>-2009.15018325894</v>
+        <v>-473.3620294046214</v>
       </c>
       <c r="W7">
-        <v>-102.8866735937045</v>
+        <v>191.2482772544026</v>
       </c>
       <c r="X7">
-        <v>-1602.726243529774</v>
+        <v>-767.9980211646252</v>
       </c>
       <c r="Y7">
-        <v>-2218.717671887454</v>
+        <v>-995.0449884285044</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -941,70 +938,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E8">
-        <v>472.4364074754121</v>
+        <v>205.8282605564164</v>
       </c>
       <c r="F8">
-        <v>3.753449048170312</v>
+        <v>0.9029763073948069</v>
       </c>
       <c r="G8">
-        <v>0.2664216263938546</v>
+        <v>1.10744876893295</v>
       </c>
       <c r="H8">
-        <v>4.805907770226213</v>
+        <v>-521.2143162731954</v>
       </c>
       <c r="I8">
-        <v>18.57310312941263</v>
+        <v>373.3105433571618</v>
       </c>
       <c r="J8">
-        <v>226.0241698098707</v>
+        <v>53.25618284480424</v>
       </c>
       <c r="K8">
-        <v>24.05363088661397</v>
+        <v>1.24741352275305</v>
       </c>
       <c r="L8">
-        <v>250.6466899530205</v>
+        <v>114.0148308683129</v>
       </c>
       <c r="M8">
-        <v>180.6042420436279</v>
+        <v>87.00056367721118</v>
       </c>
       <c r="N8">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O8">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P8">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q8">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R8">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S8">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T8">
-        <v>-48.05676770370223</v>
+        <v>5212.367943087069</v>
       </c>
       <c r="U8">
-        <v>-169.9543580199897</v>
+        <v>-3725.361138749577</v>
       </c>
       <c r="V8">
-        <v>-2260.237936628733</v>
+        <v>-532.5586177055047</v>
       </c>
       <c r="W8">
-        <v>-138.2017163266864</v>
+        <v>172.8526873054798</v>
       </c>
       <c r="X8">
-        <v>-1805.97592153697</v>
+        <v>-869.8852079962162</v>
       </c>
       <c r="Y8">
-        <v>-2506.156301566545</v>
+        <v>-1139.585819184082</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1014,70 +1011,70 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E9">
-        <v>527.3338384932722</v>
+        <v>233.4946939001675</v>
       </c>
       <c r="F9">
-        <v>4.189602373656147</v>
+        <v>1.024349989278872</v>
       </c>
       <c r="G9">
-        <v>0.2386861355358954</v>
+        <v>0.9762288382547706</v>
       </c>
       <c r="H9">
-        <v>5.345553263373858</v>
+        <v>-505.6687306948152</v>
       </c>
       <c r="I9">
-        <v>22.04917491272499</v>
+        <v>416.9766093008802</v>
       </c>
       <c r="J9">
-        <v>251.130801067331</v>
+        <v>59.17558857006406</v>
       </c>
       <c r="K9">
-        <v>27.58483359894308</v>
+        <v>3.08689386426704</v>
       </c>
       <c r="L9">
-        <v>279.3880984353164</v>
+        <v>128.4682959355705</v>
       </c>
       <c r="M9">
-        <v>200.9274742620109</v>
+        <v>97.1888467247918</v>
       </c>
       <c r="N9">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O9">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P9">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q9">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R9">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S9">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T9">
-        <v>-53.45322263517869</v>
+        <v>5056.912087303266</v>
       </c>
       <c r="U9">
-        <v>-204.7150758531134</v>
+        <v>-4162.021798186761</v>
       </c>
       <c r="V9">
-        <v>-2511.304249203336</v>
+        <v>-591.7526749581029</v>
       </c>
       <c r="W9">
-        <v>-173.5137434499775</v>
+        <v>154.4578838903399</v>
       </c>
       <c r="X9">
-        <v>-2009.208243720801</v>
+        <v>-971.7680384720225</v>
       </c>
       <c r="Y9">
-        <v>-2793.570386389503</v>
+        <v>-1284.120469856658</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1087,70 +1084,70 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E10">
-        <v>582.2265819295717</v>
+        <v>261.1599443449522</v>
       </c>
       <c r="F10">
-        <v>4.625718456884044</v>
+        <v>1.145718481740757</v>
       </c>
       <c r="G10">
-        <v>0.216182633967225</v>
+        <v>0.8728147585440376</v>
       </c>
       <c r="H10">
-        <v>5.885152677275755</v>
+        <v>-490.1238097795285</v>
       </c>
       <c r="I10">
-        <v>25.5249498812409</v>
+        <v>460.6408082694397</v>
       </c>
       <c r="J10">
-        <v>276.2352885198943</v>
+        <v>65.09474120672166</v>
       </c>
       <c r="K10">
-        <v>31.11573478896753</v>
+        <v>4.926295557423146</v>
       </c>
       <c r="L10">
-        <v>308.1270527463639</v>
+        <v>142.921143034182</v>
       </c>
       <c r="M10">
-        <v>221.2489711203671</v>
+        <v>107.3766941647482</v>
       </c>
       <c r="N10">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O10">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P10">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q10">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R10">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S10">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T10">
-        <v>-58.84921677419766</v>
+        <v>4901.4628781504</v>
       </c>
       <c r="U10">
-        <v>-239.4728255382724</v>
+        <v>-4598.663787872356</v>
       </c>
       <c r="V10">
-        <v>-2762.349123728969</v>
+        <v>-650.9442013246789</v>
       </c>
       <c r="W10">
-        <v>-208.822755350222</v>
+        <v>136.0638669587788</v>
       </c>
       <c r="X10">
-        <v>-2212.423212304362</v>
+        <v>-1073.646512871586</v>
       </c>
       <c r="Y10">
-        <v>-3080.959929499979</v>
+        <v>-1428.648940842773</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1160,70 +1157,70 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E11">
-        <v>637.1146383846935</v>
+        <v>288.8240119666734</v>
       </c>
       <c r="F11">
-        <v>5.061797302623971</v>
+        <v>1.26708178511345</v>
       </c>
       <c r="G11">
-        <v>0.197558286160849</v>
+        <v>0.7892150386413012</v>
       </c>
       <c r="H11">
-        <v>6.424706017832477</v>
+        <v>-474.5795534846693</v>
       </c>
       <c r="I11">
-        <v>29.00042807297723</v>
+        <v>504.3031403825444</v>
       </c>
       <c r="J11">
-        <v>301.3376324421297</v>
+        <v>71.01364077101243</v>
       </c>
       <c r="K11">
-        <v>34.64633449527901</v>
+        <v>6.765618607256329</v>
       </c>
       <c r="L11">
-        <v>336.8635532005137</v>
+        <v>157.3733722037578</v>
       </c>
       <c r="M11">
-        <v>241.5687328409113</v>
+        <v>117.5641060250055</v>
       </c>
       <c r="N11">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O11">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P11">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q11">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R11">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S11">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T11">
-        <v>-64.24475017976488</v>
+        <v>4746.020315201808</v>
       </c>
       <c r="U11">
-        <v>-274.2276074556357</v>
+        <v>-5035.287109003402</v>
       </c>
       <c r="V11">
-        <v>-3013.372562951323</v>
+        <v>-710.1331969675866</v>
       </c>
       <c r="W11">
-        <v>-244.1287524133368</v>
+        <v>117.670636460447</v>
       </c>
       <c r="X11">
-        <v>-2415.620829509804</v>
+        <v>-1175.520631474159</v>
       </c>
       <c r="Y11">
-        <v>-3368.324934041477</v>
+        <v>-1573.171232538531</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1233,70 +1230,70 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E12">
-        <v>691.9980084589042</v>
+        <v>316.4868968411174</v>
       </c>
       <c r="F12">
-        <v>5.49783891564497</v>
+        <v>1.388439899729428</v>
       </c>
       <c r="G12">
-        <v>0.1818896507051783</v>
+        <v>0.7202328312481329</v>
       </c>
       <c r="H12">
-        <v>6.964213290944599</v>
+        <v>-459.0359617676877</v>
       </c>
       <c r="I12">
-        <v>32.47560952593631</v>
+        <v>547.9636057599855</v>
       </c>
       <c r="J12">
-        <v>326.4378331085609</v>
+        <v>76.9322872791663</v>
       </c>
       <c r="K12">
-        <v>38.17663275651284</v>
+        <v>8.604863018845208</v>
       </c>
       <c r="L12">
-        <v>365.5976001119998</v>
+        <v>171.8249834839371</v>
       </c>
       <c r="M12">
-        <v>261.8867596459022</v>
+        <v>127.7510823335178</v>
       </c>
       <c r="N12">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O12">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P12">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q12">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R12">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S12">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T12">
-        <v>-69.6398229108861</v>
+        <v>4590.584398031991</v>
       </c>
       <c r="U12">
-        <v>-308.9794219852265</v>
+        <v>-5471.891762777814</v>
       </c>
       <c r="V12">
-        <v>-3264.374569615635</v>
+        <v>-769.3196620491253</v>
       </c>
       <c r="W12">
-        <v>-279.4317350256752</v>
+        <v>99.27819234455819</v>
       </c>
       <c r="X12">
-        <v>-2618.801097559714</v>
+        <v>-1277.390394559283</v>
       </c>
       <c r="Y12">
-        <v>-3655.665403156338</v>
+        <v>-1717.687345340324</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1306,149 +1303,76 @@
         <v>39</v>
       </c>
       <c r="D13">
-        <v>125.8672760472691</v>
+        <v>227.9442537648138</v>
       </c>
       <c r="E13">
-        <v>746.8766927523538</v>
+        <v>344.1485990442161</v>
       </c>
       <c r="F13">
-        <v>5.933843300715163</v>
+        <v>1.509792825921809</v>
       </c>
       <c r="G13">
-        <v>0.168524841206959</v>
+        <v>0.6623425299358187</v>
       </c>
       <c r="H13">
-        <v>7.503674502512695</v>
+        <v>-443.4930345858884</v>
       </c>
       <c r="I13">
-        <v>35.95049427810591</v>
+        <v>591.6222045214381</v>
       </c>
       <c r="J13">
-        <v>351.5358907936661</v>
+        <v>82.85068074741048</v>
       </c>
       <c r="K13">
-        <v>41.70662961126072</v>
+        <v>10.44402879719564</v>
       </c>
       <c r="L13">
-        <v>394.3291937950416</v>
+        <v>186.2759769143304</v>
       </c>
       <c r="M13">
-        <v>282.203051757504</v>
+        <v>137.9376231182032</v>
       </c>
       <c r="N13">
-        <v>0.002309998559894666</v>
+        <v>0.2247803551144898</v>
       </c>
       <c r="O13">
-        <v>15.77667327413656</v>
+        <v>7.744294822041411</v>
       </c>
       <c r="P13">
-        <v>0.003761469974051579</v>
+        <v>0.003210742537703482</v>
       </c>
       <c r="Q13">
-        <v>102.3345925394533</v>
+        <v>185.3268225330103</v>
       </c>
       <c r="R13">
-        <v>0.06649889930849895</v>
+        <v>0.1204287758955616</v>
       </c>
       <c r="S13">
-        <v>0.3105979636602569</v>
+        <v>0.5624894990469329</v>
       </c>
       <c r="T13">
-        <v>-75.03443502656705</v>
+        <v>4435.155126213998</v>
       </c>
       <c r="U13">
-        <v>-343.7282695069225</v>
+        <v>-5908.47775039234</v>
       </c>
       <c r="V13">
-        <v>-3515.355146466687</v>
+        <v>-828.5035967315671</v>
       </c>
       <c r="W13">
-        <v>-314.7317035731539</v>
+        <v>80.88653456105385</v>
       </c>
       <c r="X13">
-        <v>-2821.964018675731</v>
+        <v>-1379.255802406136</v>
       </c>
       <c r="Y13">
-        <v>-3942.981339986756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>125.8672760472691</v>
-      </c>
-      <c r="E14">
-        <v>801.7506918651343</v>
-      </c>
-      <c r="F14">
-        <v>6.369810462602201</v>
-      </c>
-      <c r="G14">
-        <v>0.1569905424770644</v>
-      </c>
-      <c r="H14">
-        <v>8.04308965843461</v>
-      </c>
-      <c r="I14">
-        <v>39.42508236751746</v>
-      </c>
-      <c r="J14">
-        <v>376.63180577188</v>
-      </c>
-      <c r="K14">
-        <v>45.23632509811432</v>
-      </c>
-      <c r="L14">
-        <v>423.0583345638443</v>
-      </c>
-      <c r="M14">
-        <v>302.5176093978662</v>
-      </c>
-      <c r="N14">
-        <v>0.002309998559894666</v>
-      </c>
-      <c r="O14">
-        <v>15.77667327413656</v>
-      </c>
-      <c r="P14">
-        <v>0.003761469974051579</v>
-      </c>
-      <c r="Q14">
-        <v>102.3345925394533</v>
-      </c>
-      <c r="R14">
-        <v>0.06649889930849895</v>
-      </c>
-      <c r="S14">
-        <v>0.3105979636602569</v>
-      </c>
-      <c r="T14">
-        <v>-80.42858658578621</v>
-      </c>
-      <c r="U14">
-        <v>-378.4741504010381</v>
-      </c>
-      <c r="V14">
-        <v>-3766.314296248825</v>
-      </c>
-      <c r="W14">
-        <v>-350.0286584416899</v>
-      </c>
-      <c r="X14">
-        <v>-3025.109595079353</v>
-      </c>
-      <c r="Y14">
-        <v>-4230.272747674782</v>
+        <v>-1862.197279644257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
@@ -649,31 +649,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E4">
-        <v>95.15069667442003</v>
+        <v>80.47120540568721</v>
       </c>
       <c r="F4">
-        <v>0.4174296789801674</v>
+        <v>0.3530301996062382</v>
       </c>
       <c r="G4">
-        <v>2.395613082527156</v>
+        <v>2.832618855597558</v>
       </c>
       <c r="H4">
-        <v>-583.4033060702495</v>
+        <v>-583.4906549562875</v>
       </c>
       <c r="I4">
-        <v>198.6276074356865</v>
+        <v>191.9141937965032</v>
       </c>
       <c r="J4">
-        <v>29.57602873311134</v>
+        <v>29.56594171532925</v>
       </c>
       <c r="K4">
-        <v>-6.111294427653775</v>
+        <v>-11.31149026793719</v>
       </c>
       <c r="L4">
-        <v>56.19479011988733</v>
+        <v>50.72887571452884</v>
       </c>
       <c r="M4">
-        <v>46.24307485178724</v>
+        <v>44.64229628723842</v>
       </c>
       <c r="N4">
         <v>0.2247803551144898</v>
@@ -694,22 +694,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T4">
-        <v>5834.25784105761</v>
+        <v>5835.131329917989</v>
       </c>
       <c r="U4">
-        <v>-1978.531779534824</v>
+        <v>-1911.397643142991</v>
       </c>
       <c r="V4">
-        <v>-295.7570765885757</v>
+        <v>-295.6562064107547</v>
       </c>
       <c r="W4">
-        <v>246.439766809548</v>
+        <v>298.4417252123822</v>
       </c>
       <c r="X4">
-        <v>-462.3103197419769</v>
+        <v>-446.3025340964887</v>
       </c>
       <c r="Y4">
-        <v>-561.3854116998264</v>
+        <v>-506.7262676462415</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -722,31 +722,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E5">
-        <v>122.8218623727153</v>
+        <v>108.2915056955826</v>
       </c>
       <c r="F5">
-        <v>0.5388241218813056</v>
+        <v>0.4750789015603553</v>
       </c>
       <c r="G5">
-        <v>1.85589315583812</v>
+        <v>2.104913513767054</v>
       </c>
       <c r="H5">
-        <v>-567.8550614131964</v>
+        <v>-567.9414948964695</v>
       </c>
       <c r="I5">
-        <v>242.3011424775759</v>
+        <v>235.6559894279781</v>
       </c>
       <c r="J5">
-        <v>35.49644697510575</v>
+        <v>35.48647317335326</v>
       </c>
       <c r="K5">
-        <v>-4.271499442314962</v>
+        <v>-9.418878983997274</v>
       </c>
       <c r="L5">
-        <v>70.65072745818179</v>
+        <v>65.24035093322163</v>
       </c>
       <c r="M5">
-        <v>56.43310060928343</v>
+        <v>54.84859802024584</v>
       </c>
       <c r="N5">
         <v>0.2247803551144898</v>
@@ -767,22 +767,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T5">
-        <v>5678.775394487078</v>
+        <v>5679.63972931981</v>
       </c>
       <c r="U5">
-        <v>-2415.267129953718</v>
+        <v>-2348.815599457739</v>
       </c>
       <c r="V5">
-        <v>-354.9612590085198</v>
+        <v>-354.8615209909949</v>
       </c>
       <c r="W5">
-        <v>228.0418169561599</v>
+        <v>279.515612372983</v>
       </c>
       <c r="X5">
-        <v>-564.2105773169387</v>
+        <v>-548.3655514265629</v>
       </c>
       <c r="Y5">
-        <v>-705.944785082771</v>
+        <v>-651.8410198331694</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -795,31 +795,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E6">
-        <v>150.4918448685494</v>
+        <v>136.11061536739</v>
       </c>
       <c r="F6">
-        <v>0.6602133740288205</v>
+        <v>0.5971223802282155</v>
       </c>
       <c r="G6">
-        <v>1.51466183409418</v>
+        <v>1.674698576224539</v>
       </c>
       <c r="H6">
-        <v>-552.3074815897562</v>
+        <v>-552.3930002900161</v>
       </c>
       <c r="I6">
-        <v>285.9728100652865</v>
+        <v>279.3959130533185</v>
       </c>
       <c r="J6">
-        <v>41.41661206356002</v>
+        <v>41.40675125194775</v>
       </c>
       <c r="K6">
-        <v>-2.431783125473885</v>
+        <v>-7.526348697632784</v>
       </c>
       <c r="L6">
-        <v>85.10604666924337</v>
+        <v>79.75120510809938</v>
       </c>
       <c r="M6">
-        <v>66.62269064739667</v>
+        <v>65.05446295684669</v>
       </c>
       <c r="N6">
         <v>0.2247803551144898</v>
@@ -840,22 +840,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T6">
-        <v>5523.299596252677</v>
+        <v>5524.154783255275</v>
       </c>
       <c r="U6">
-        <v>-2851.983805830823</v>
+        <v>-2786.214835711144</v>
       </c>
       <c r="V6">
-        <v>-414.1629098930625</v>
+        <v>-414.0643017769398</v>
       </c>
       <c r="W6">
-        <v>209.6446537877491</v>
+        <v>260.5903095093381</v>
       </c>
       <c r="X6">
-        <v>-666.1064776980711</v>
+        <v>-650.4242007925714</v>
       </c>
       <c r="Y6">
-        <v>-850.4979771933868</v>
+        <v>-796.9495615819469</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -868,31 +868,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E7">
-        <v>178.1606442378543</v>
+        <v>163.9285344975942</v>
       </c>
       <c r="F7">
-        <v>0.7815974357558284</v>
+        <v>0.7191606359453611</v>
       </c>
       <c r="G7">
-        <v>1.279431014295703</v>
+        <v>1.390509922286647</v>
       </c>
       <c r="H7">
-        <v>-536.7605665573064</v>
+        <v>-536.8451710941154</v>
       </c>
       <c r="I7">
-        <v>329.6426103185659</v>
+        <v>323.133964792738</v>
       </c>
       <c r="J7">
-        <v>47.33652401471591</v>
+        <v>47.32677596737994</v>
       </c>
       <c r="K7">
-        <v>-0.5921454721392365</v>
+        <v>-5.633899403648684</v>
       </c>
       <c r="L7">
-        <v>99.56074779275514</v>
+        <v>94.26143827909254</v>
       </c>
       <c r="M7">
-        <v>76.81184499405208</v>
+        <v>75.25989112507523</v>
       </c>
       <c r="N7">
         <v>0.2247803551144898</v>
@@ -913,22 +913,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T7">
-        <v>5367.830445928179</v>
+        <v>5368.676491296268</v>
       </c>
       <c r="U7">
-        <v>-3288.681808363617</v>
+        <v>-3223.595353105338</v>
       </c>
       <c r="V7">
-        <v>-473.3620294046214</v>
+        <v>-473.2645489312617</v>
       </c>
       <c r="W7">
-        <v>191.2482772544026</v>
+        <v>241.6658165694971</v>
       </c>
       <c r="X7">
-        <v>-767.9980211646252</v>
+        <v>-752.4784824748567</v>
       </c>
       <c r="Y7">
-        <v>-995.0449884285044</v>
+        <v>-942.0518932918785</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -941,31 +941,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E8">
-        <v>205.8282605564164</v>
+        <v>191.7452631625638</v>
       </c>
       <c r="F8">
-        <v>0.9029763073948069</v>
+        <v>0.841193669046823</v>
       </c>
       <c r="G8">
-        <v>1.10744876893295</v>
+        <v>1.188786883207436</v>
       </c>
       <c r="H8">
-        <v>-521.2143162731954</v>
+        <v>-521.2980072661157</v>
       </c>
       <c r="I8">
-        <v>373.3105433571618</v>
+        <v>366.8701447663188</v>
       </c>
       <c r="J8">
-        <v>53.25618284480424</v>
+        <v>53.24654733591251</v>
       </c>
       <c r="K8">
-        <v>1.24741352275305</v>
+        <v>-3.741531096879044</v>
       </c>
       <c r="L8">
-        <v>114.0148308683129</v>
+        <v>108.7710504859861</v>
       </c>
       <c r="M8">
-        <v>87.00056367721118</v>
+        <v>85.46488255296572</v>
       </c>
       <c r="N8">
         <v>0.2247803551144898</v>
@@ -986,22 +986,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T8">
-        <v>5212.367943087069</v>
+        <v>5213.204853016272</v>
       </c>
       <c r="U8">
-        <v>-3725.361138749577</v>
+        <v>-3660.957152841147</v>
       </c>
       <c r="V8">
-        <v>-532.5586177055047</v>
+        <v>-532.4622626165874</v>
       </c>
       <c r="W8">
-        <v>172.8526873054798</v>
+        <v>222.7421335018007</v>
       </c>
       <c r="X8">
-        <v>-869.8852079962162</v>
+        <v>-854.5283967537616</v>
       </c>
       <c r="Y8">
-        <v>-1139.585819184082</v>
+        <v>-1087.148015360814</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1014,31 +1014,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E9">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F9">
-        <v>1.024349989278872</v>
+        <v>0.963221479867888</v>
       </c>
       <c r="G9">
-        <v>0.9762288382547706</v>
+        <v>1.038182828041954</v>
       </c>
       <c r="H9">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I9">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J9">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K9">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L9">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M9">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N9">
         <v>0.2247803551144898</v>
@@ -1059,22 +1059,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T9">
-        <v>5056.912087303266</v>
+        <v>5057.739867988188</v>
       </c>
       <c r="U9">
-        <v>-4162.021798186761</v>
+        <v>-4098.300236120704</v>
       </c>
       <c r="V9">
-        <v>-591.7526749581029</v>
+        <v>-591.6574429955435</v>
       </c>
       <c r="W9">
-        <v>154.4578838903399</v>
+        <v>203.819260253862</v>
       </c>
       <c r="X9">
-        <v>-971.7680384720225</v>
+        <v>-956.5739439097015</v>
       </c>
       <c r="Y9">
-        <v>-1284.120469856658</v>
+        <v>-1232.237928188057</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1087,31 +1087,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E10">
-        <v>261.1599443449522</v>
+        <v>247.3751494024764</v>
       </c>
       <c r="F10">
-        <v>1.145718481740757</v>
+        <v>1.085244068743715</v>
       </c>
       <c r="G10">
-        <v>0.8728147585440376</v>
+        <v>0.9214517073174202</v>
       </c>
       <c r="H10">
-        <v>-490.1238097795285</v>
+        <v>-490.2056755429367</v>
       </c>
       <c r="I10">
-        <v>460.6408082694397</v>
+        <v>454.336889896731</v>
       </c>
       <c r="J10">
-        <v>65.09474120672166</v>
+        <v>65.08533009733219</v>
       </c>
       <c r="K10">
-        <v>4.926295557423146</v>
+        <v>0.04296257592795882</v>
       </c>
       <c r="L10">
-        <v>142.921143034182</v>
+        <v>137.7884121670795</v>
       </c>
       <c r="M10">
-        <v>107.3766941647482</v>
+        <v>105.8735552998769</v>
       </c>
       <c r="N10">
         <v>0.2247803551144898</v>
@@ -1132,22 +1132,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T10">
-        <v>4901.4628781504</v>
+        <v>4902.281535784481</v>
       </c>
       <c r="U10">
-        <v>-4598.663787872356</v>
+        <v>-4535.624604145269</v>
       </c>
       <c r="V10">
-        <v>-650.9442013246789</v>
+        <v>-650.8500902307842</v>
       </c>
       <c r="W10">
-        <v>136.0638669587788</v>
+        <v>184.8971967737307</v>
       </c>
       <c r="X10">
-        <v>-1073.646512871586</v>
+        <v>-1058.615124222873</v>
       </c>
       <c r="Y10">
-        <v>-1428.648940842773</v>
+        <v>-1377.321632171748</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1160,31 +1160,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E11">
-        <v>288.8240119666734</v>
+        <v>275.1883071302436</v>
       </c>
       <c r="F11">
-        <v>1.26708178511345</v>
+        <v>1.207261436009591</v>
       </c>
       <c r="G11">
-        <v>0.7892150386413012</v>
+        <v>0.8283210000522668</v>
       </c>
       <c r="H11">
-        <v>-474.5795534846693</v>
+        <v>-474.6605075623229</v>
       </c>
       <c r="I11">
-        <v>504.3031403825444</v>
+        <v>498.0674552937999</v>
       </c>
       <c r="J11">
-        <v>71.01364077101243</v>
+        <v>71.0043415227392</v>
       </c>
       <c r="K11">
-        <v>6.765618607256329</v>
+        <v>1.935087952340837</v>
       </c>
       <c r="L11">
-        <v>157.3733722037578</v>
+        <v>152.2961617209658</v>
       </c>
       <c r="M11">
-        <v>117.5641060250055</v>
+        <v>116.0772366749588</v>
       </c>
       <c r="N11">
         <v>0.2247803551144898</v>
@@ -1205,22 +1205,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T11">
-        <v>4746.020315201808</v>
+        <v>4746.829855978343</v>
       </c>
       <c r="U11">
-        <v>-5035.287109003402</v>
+        <v>-4972.930258115957</v>
       </c>
       <c r="V11">
-        <v>-710.1331969675866</v>
+        <v>-710.0402044848543</v>
       </c>
       <c r="W11">
-        <v>117.670636460447</v>
+        <v>165.9759430096019</v>
       </c>
       <c r="X11">
-        <v>-1175.520631474159</v>
+        <v>-1160.651937973693</v>
       </c>
       <c r="Y11">
-        <v>-1573.171232538531</v>
+        <v>-1522.399127710611</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1233,31 +1233,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E12">
-        <v>316.4868968411174</v>
+        <v>303.0002746984246</v>
       </c>
       <c r="F12">
-        <v>1.388439899729428</v>
+        <v>1.329273582000674</v>
       </c>
       <c r="G12">
-        <v>0.7202328312481329</v>
+        <v>0.7522905845273113</v>
       </c>
       <c r="H12">
-        <v>-459.0359617676877</v>
+        <v>-459.1160047787562</v>
       </c>
       <c r="I12">
-        <v>547.9636057599855</v>
+        <v>541.7961494056508</v>
       </c>
       <c r="J12">
-        <v>76.9322872791663</v>
+        <v>76.92309966629091</v>
       </c>
       <c r="K12">
-        <v>8.604863018845208</v>
+        <v>3.827132362348493</v>
       </c>
       <c r="L12">
-        <v>171.8249834839371</v>
+        <v>166.8032904702122</v>
       </c>
       <c r="M12">
-        <v>127.7510823335178</v>
+        <v>126.2804814218398</v>
       </c>
       <c r="N12">
         <v>0.2247803551144898</v>
@@ -1278,22 +1278,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T12">
-        <v>4590.584398031991</v>
+        <v>4591.384828142676</v>
       </c>
       <c r="U12">
-        <v>-5471.891762777814</v>
+        <v>-5410.217199234467</v>
       </c>
       <c r="V12">
-        <v>-769.3196620491253</v>
+        <v>-769.2277859203714</v>
       </c>
       <c r="W12">
-        <v>99.27819234455819</v>
+        <v>147.0554989095253</v>
       </c>
       <c r="X12">
-        <v>-1277.390394559283</v>
+        <v>-1262.684385442502</v>
       </c>
       <c r="Y12">
-        <v>-1717.687345340324</v>
+        <v>-1667.470415203075</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1306,31 +1306,31 @@
         <v>227.9442537648138</v>
       </c>
       <c r="E13">
-        <v>344.1485990442161</v>
+        <v>330.8110521834169</v>
       </c>
       <c r="F13">
-        <v>1.509792825921809</v>
+        <v>1.451280507052124</v>
       </c>
       <c r="G13">
-        <v>0.6623425299358187</v>
+        <v>0.6890466695726688</v>
       </c>
       <c r="H13">
-        <v>-443.4930345858884</v>
+        <v>-443.572167149614</v>
       </c>
       <c r="I13">
-        <v>591.6222045214381</v>
+        <v>585.5229723523225</v>
       </c>
       <c r="J13">
-        <v>82.85068074741048</v>
+        <v>82.84160454424091</v>
       </c>
       <c r="K13">
-        <v>10.44402879719564</v>
+        <v>5.719095811160514</v>
       </c>
       <c r="L13">
-        <v>186.2759769143304</v>
+        <v>181.3097984546766</v>
       </c>
       <c r="M13">
-        <v>137.9376231182032</v>
+        <v>136.4832895685322</v>
       </c>
       <c r="N13">
         <v>0.2247803551144898</v>
@@ -1351,22 +1351,22 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T13">
-        <v>4435.155126213998</v>
+        <v>4435.946451851254</v>
       </c>
       <c r="U13">
-        <v>-5908.47775039234</v>
+        <v>-5847.485428701184</v>
       </c>
       <c r="V13">
-        <v>-828.5035967315671</v>
+        <v>-828.4128346998714</v>
       </c>
       <c r="W13">
-        <v>80.88653456105385</v>
+        <v>128.1358644214051</v>
       </c>
       <c r="X13">
-        <v>-1379.255802406136</v>
+        <v>-1364.712466909426</v>
       </c>
       <c r="Y13">
-        <v>-1862.197279644257</v>
+        <v>-1812.535495047719</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Increase in maize productivity.xlsx
@@ -94,7 +94,7 @@
     <t>Mm3</t>
   </si>
   <si>
-    <t>ktonCO2_eq</t>
+    <t>kton</t>
   </si>
   <si>
     <t>kha</t>
@@ -658,10 +658,10 @@
         <v>2.832618855597558</v>
       </c>
       <c r="H4">
-        <v>-583.4906549562875</v>
+        <v>-586.8632392082727</v>
       </c>
       <c r="I4">
-        <v>191.9141937965032</v>
+        <v>-24.42089618426689</v>
       </c>
       <c r="J4">
         <v>29.56594171532925</v>
@@ -676,10 +676,10 @@
         <v>44.64229628723842</v>
       </c>
       <c r="N4">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O4">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P4">
         <v>0.003210742537703482</v>
@@ -694,10 +694,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T4">
-        <v>5835.131329917989</v>
+        <v>5868.69731084902</v>
       </c>
       <c r="U4">
-        <v>-1911.397643142991</v>
+        <v>272.7803437721013</v>
       </c>
       <c r="V4">
         <v>-295.6562064107547</v>
@@ -731,10 +731,10 @@
         <v>2.104913513767054</v>
       </c>
       <c r="H5">
-        <v>-567.9414948964695</v>
+        <v>-572.0382134534884</v>
       </c>
       <c r="I5">
-        <v>235.6559894279781</v>
+        <v>-22.47474728040834</v>
       </c>
       <c r="J5">
         <v>35.48647317335326</v>
@@ -749,10 +749,10 @@
         <v>54.84859802024584</v>
       </c>
       <c r="N5">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O5">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P5">
         <v>0.003210742537703482</v>
@@ -767,10 +767,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T5">
-        <v>5679.63972931981</v>
+        <v>5720.447053301177</v>
       </c>
       <c r="U5">
-        <v>-2348.815599457739</v>
+        <v>253.3188547335158</v>
       </c>
       <c r="V5">
         <v>-354.8615209909949</v>
@@ -804,10 +804,10 @@
         <v>1.674698576224539</v>
       </c>
       <c r="H6">
-        <v>-552.3930002900161</v>
+        <v>-557.2138221614296</v>
       </c>
       <c r="I6">
-        <v>279.3959130533185</v>
+        <v>-20.52868166537519</v>
       </c>
       <c r="J6">
         <v>41.40675125194775</v>
@@ -822,10 +822,10 @@
         <v>65.05446295684669</v>
       </c>
       <c r="N6">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O6">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P6">
         <v>0.003210742537703482</v>
@@ -840,10 +840,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T6">
-        <v>5524.154783255275</v>
+        <v>5572.203140380589</v>
       </c>
       <c r="U6">
-        <v>-2786.214835711144</v>
+        <v>233.8581985831843</v>
       </c>
       <c r="V6">
         <v>-414.0643017769398</v>
@@ -877,10 +877,10 @@
         <v>1.390509922286647</v>
       </c>
       <c r="H7">
-        <v>-536.8451710941154</v>
+        <v>-542.3900652913726</v>
       </c>
       <c r="I7">
-        <v>323.133964792738</v>
+        <v>-18.58269933381234</v>
       </c>
       <c r="J7">
         <v>47.32677596737994</v>
@@ -895,10 +895,10 @@
         <v>75.25989112507523</v>
       </c>
       <c r="N7">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O7">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P7">
         <v>0.003210742537703482</v>
@@ -913,10 +913,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T7">
-        <v>5368.676491296268</v>
+        <v>5423.965571680019</v>
       </c>
       <c r="U7">
-        <v>-3223.595353105338</v>
+        <v>214.3983752675558</v>
       </c>
       <c r="V7">
         <v>-473.2645489312617</v>
@@ -950,10 +950,10 @@
         <v>1.188786883207436</v>
       </c>
       <c r="H8">
-        <v>-521.2980072661157</v>
+        <v>-527.566942802594</v>
       </c>
       <c r="I8">
-        <v>366.8701447663188</v>
+        <v>-16.6368002803938</v>
       </c>
       <c r="J8">
         <v>53.24654733591251</v>
@@ -968,10 +968,10 @@
         <v>85.46488255296572</v>
       </c>
       <c r="N8">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O8">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P8">
         <v>0.003210742537703482</v>
@@ -986,10 +986,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T8">
-        <v>5213.204853016272</v>
+        <v>5275.734346792233</v>
       </c>
       <c r="U8">
-        <v>-3660.957152841147</v>
+        <v>194.9393847333704</v>
       </c>
       <c r="V8">
         <v>-532.4622626165874</v>
@@ -1023,10 +1023,10 @@
         <v>1.038182828041954</v>
       </c>
       <c r="H9">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I9">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J9">
         <v>59.16606537380812</v>
@@ -1041,10 +1041,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N9">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O9">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P9">
         <v>0.003210742537703482</v>
@@ -1059,10 +1059,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T9">
-        <v>5057.739867988188</v>
+        <v>5127.509465310141</v>
       </c>
       <c r="U9">
-        <v>-4098.300236120704</v>
+        <v>175.4812269269314</v>
       </c>
       <c r="V9">
         <v>-591.6574429955435</v>
@@ -1096,10 +1096,10 @@
         <v>0.9214517073174202</v>
       </c>
       <c r="H10">
-        <v>-490.2056755429367</v>
+        <v>-497.922600805985</v>
       </c>
       <c r="I10">
-        <v>454.336889896731</v>
+        <v>-12.74525198654737</v>
       </c>
       <c r="J10">
         <v>65.08533009733219</v>
@@ -1114,10 +1114,10 @@
         <v>105.8735552998769</v>
       </c>
       <c r="N10">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O10">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P10">
         <v>0.003210742537703482</v>
@@ -1132,10 +1132,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T10">
-        <v>4902.281535784481</v>
+        <v>4979.290926826143</v>
       </c>
       <c r="U10">
-        <v>-4535.624604145269</v>
+        <v>156.0239017949061</v>
       </c>
       <c r="V10">
         <v>-650.8500902307842</v>
@@ -1169,10 +1169,10 @@
         <v>0.8283210000522668</v>
       </c>
       <c r="H11">
-        <v>-474.6605075623229</v>
+        <v>-483.1013812167221</v>
       </c>
       <c r="I11">
-        <v>498.0674552937999</v>
+        <v>-10.79960273543838</v>
       </c>
       <c r="J11">
         <v>71.0043415227392</v>
@@ -1187,10 +1187,10 @@
         <v>116.0772366749588</v>
       </c>
       <c r="N11">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O11">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P11">
         <v>0.003210742537703482</v>
@@ -1205,10 +1205,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T11">
-        <v>4746.829855978343</v>
+        <v>4831.078730933514</v>
       </c>
       <c r="U11">
-        <v>-4972.930258115957</v>
+        <v>136.5674092838162</v>
       </c>
       <c r="V11">
         <v>-710.0402044848543</v>
@@ -1242,10 +1242,10 @@
         <v>0.7522905845273113</v>
       </c>
       <c r="H12">
-        <v>-459.1160047787562</v>
+        <v>-468.2807958458507</v>
       </c>
       <c r="I12">
-        <v>541.7961494056508</v>
+        <v>-8.854036741075106</v>
       </c>
       <c r="J12">
         <v>76.92309966629091</v>
@@ -1260,10 +1260,10 @@
         <v>126.2804814218398</v>
       </c>
       <c r="N12">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O12">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P12">
         <v>0.003210742537703482</v>
@@ -1278,10 +1278,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T12">
-        <v>4591.384828142676</v>
+        <v>4682.8728772248</v>
       </c>
       <c r="U12">
-        <v>-5410.217199234467</v>
+        <v>117.1117493401835</v>
       </c>
       <c r="V12">
         <v>-769.2277859203714</v>
@@ -1315,10 +1315,10 @@
         <v>0.6890466695726688</v>
       </c>
       <c r="H13">
-        <v>-443.572167149614</v>
+        <v>-453.4608446526981</v>
       </c>
       <c r="I13">
-        <v>585.5229723523225</v>
+        <v>-6.908553998124262</v>
       </c>
       <c r="J13">
         <v>82.84160454424091</v>
@@ -1333,10 +1333,10 @@
         <v>136.4832895685322</v>
       </c>
       <c r="N13">
-        <v>0.2247803551144898</v>
+        <v>0.06491876629297622</v>
       </c>
       <c r="O13">
-        <v>7.744294822041411</v>
+        <v>28.57138192943239</v>
       </c>
       <c r="P13">
         <v>0.003210742537703482</v>
@@ -1351,10 +1351,10 @@
         <v>0.5624894990469329</v>
       </c>
       <c r="T13">
-        <v>4435.946451851254</v>
+        <v>4534.673365293274</v>
       </c>
       <c r="U13">
-        <v>-5847.485428701184</v>
+        <v>97.65692191067501</v>
       </c>
       <c r="V13">
         <v>-828.4128346998714</v>
